--- a/NCMCY45_0.5_1.xlsx_fitting_results.xlsx
+++ b/NCMCY45_0.5_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,520 +479,439 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1_1RCPE</t>
+          <t>2_2RCPE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02890165196293664</v>
+        <v>0.03033370206724794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000904202221873476</v>
+        <v>0.001349277849619763</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9440967335152</v>
+        <v>2.475426816350727</v>
       </c>
       <c r="E2" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007074350344807523</v>
+        <v>0.003372835326262333</v>
       </c>
       <c r="G2" t="n">
-        <v>5.108846998560199</v>
+        <v>7.165001703908843</v>
       </c>
       <c r="H2" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003046960295967524</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.740075396524968e-07</v>
+        <v>0.001515904703839412</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2_2RCPE</t>
+          <t>3_2RCPE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02990445348357286</v>
+        <v>0.03078917708836707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0015837203863487</v>
+        <v>0.006428108209257035</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9597174641565305</v>
+        <v>9.090820288746265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9399040413597501</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003672495786652676</v>
+        <v>0.001356857400588362</v>
       </c>
       <c r="G3" t="n">
-        <v>5.454522306484032</v>
+        <v>2.347725740826639</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999981459182</v>
+        <v>0.9999999999982039</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003002838016838562</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.707398999551675e-07</v>
+        <v>0.001631762663945444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3_2RCPE</t>
+          <t>4_2RCPE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03027692208607856</v>
+        <v>0.03116265714285145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001714758184583464</v>
+        <v>0.009697889850916542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8535016509414196</v>
+        <v>9.580223067339983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999947808</v>
+        <v>0.9170796146162062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00699163428543604</v>
+        <v>0.001382246986151077</v>
       </c>
       <c r="G4" t="n">
-        <v>6.810874787973079</v>
+        <v>2.120955055997783</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9444368865975902</v>
+        <v>0.9999999999992696</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003127429696829191</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.640030596517084e-07</v>
+        <v>0.00173634919808722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4_2RCPE</t>
+          <t>5_2RCPE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03062791457001703</v>
+        <v>0.03147509533089505</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001845931606840112</v>
+        <v>0.01280459849009142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7661516349937962</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999998564296</v>
+        <v>0.9089110797404031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01042179896110516</v>
+        <v>0.001493312440105536</v>
       </c>
       <c r="G5" t="n">
-        <v>7.712383578286175</v>
+        <v>2.110533035542335</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9180993038891667</v>
+        <v>0.9801651136047773</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003269501506429722</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.63369935823702e-07</v>
+        <v>0.001858174414161532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5_2RCPE</t>
+          <t>6_2RCPE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03079846391562466</v>
+        <v>0.03179613136104655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002154504623840496</v>
+        <v>0.01698342544712774</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8144680623596358</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9614827095486869</v>
+        <v>0.9124648954332879</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01373377295782021</v>
+        <v>0.001664543011900022</v>
       </c>
       <c r="G6" t="n">
-        <v>8.285128769085627</v>
+        <v>1.9903677881777</v>
       </c>
       <c r="H6" t="n">
-        <v>0.908624987786409</v>
+        <v>0.9668943829227612</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003442949768537454</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.480202613834925e-07</v>
+        <v>0.002004022244843526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6_2RCPE</t>
+          <t>7_2RCPE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0310641341077433</v>
+        <v>0.03200588743962048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002504413543560778</v>
+        <v>0.002335778947826903</v>
       </c>
       <c r="D7" t="n">
-        <v>1.001613413522448</v>
+        <v>4.113755060924207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9149448036004644</v>
+        <v>0.8211809752641631</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0181114862649656</v>
+        <v>0.02015241306291993</v>
       </c>
       <c r="G7" t="n">
-        <v>8.500269251383532</v>
+        <v>9.596527691908166</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9129394985454514</v>
+        <v>0.9265708127837523</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003644637075619024</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.443654765381088e-07</v>
+        <v>0.002072682984453453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7_2RCPE</t>
+          <t>8_2RCPE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03117414335187984</v>
+        <v>0.03238963376106068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002999073530493734</v>
+        <v>0.02337768684359801</v>
       </c>
       <c r="D8" t="n">
-        <v>1.306667135029095</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8438781413503122</v>
+        <v>0.9250765225397108</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02120820252638213</v>
+        <v>0.001820522152042448</v>
       </c>
       <c r="G8" t="n">
-        <v>8.872092848527863</v>
+        <v>1.259725395623061</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9141465908664226</v>
+        <v>0.9999999999999712</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003886820785957259</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.539571564014593e-07</v>
+        <v>0.002418011312695237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8_2RCPE</t>
+          <t>9_2RCPE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03144522500516977</v>
+        <v>0.03254052279690944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003231479740681345</v>
+        <v>0.002576767427702648</v>
       </c>
       <c r="D9" t="n">
-        <v>1.383712951380939</v>
+        <v>3.479928258391623</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8279144628544204</v>
+        <v>0.8200269540731435</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02527409754477601</v>
+        <v>0.02838269897187329</v>
       </c>
       <c r="G9" t="n">
-        <v>9.075939984105499</v>
+        <v>9.934311468171236</v>
       </c>
       <c r="H9" t="n">
-        <v>0.913391182154271</v>
+        <v>0.9182746586070191</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004095265093703256</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.530036385499821e-07</v>
+        <v>0.002326003499112124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9_2RCPE</t>
+          <t>10_2RCPE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03164001289964309</v>
+        <v>3.779993218654805e-17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003479809611897022</v>
+        <v>0.06046214964211883</v>
       </c>
       <c r="D10" t="n">
-        <v>1.468722002010316</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8070907101079186</v>
+        <v>0.04120776875016587</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02962370648418123</v>
+        <v>0.03027260417337301</v>
       </c>
       <c r="G10" t="n">
-        <v>9.265523650570318</v>
+        <v>10.72289620187247</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9110290863828358</v>
+        <v>0.9391199058246876</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004321574665901636</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.502448383371064e-07</v>
+        <v>0.002288762045014565</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10_2RCPE</t>
+          <t>11_2RCPE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03179966332588214</v>
+        <v>0.03308085090569141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00381506518549373</v>
+        <v>0.002856370140448154</v>
       </c>
       <c r="D11" t="n">
-        <v>1.61442467181053</v>
+        <v>2.992146886713201</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7790452734968677</v>
+        <v>0.8217342214516025</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03430214021459792</v>
+        <v>0.03873499851259316</v>
       </c>
       <c r="G11" t="n">
-        <v>9.380443079602459</v>
+        <v>10.12389650648553</v>
       </c>
       <c r="H11" t="n">
-        <v>0.912606958579512</v>
+        <v>0.9160284247851281</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004593462705017183</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.511793562941675e-07</v>
+        <v>0.002650887552752529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11_2RCPE</t>
+          <t>12_2RCPE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03212231548842023</v>
+        <v>2.119383747790041e-18</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003951434636304296</v>
+        <v>0.0634454418895955</v>
       </c>
       <c r="D12" t="n">
-        <v>1.563287512526065</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7833751396917821</v>
+        <v>0.04322003947258076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04036354107990124</v>
+        <v>0.04096514306780778</v>
       </c>
       <c r="G12" t="n">
-        <v>9.48317325366297</v>
+        <v>10.81481535658307</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9107448023661565</v>
+        <v>0.9480278755724438</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004865089270710233</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.534169152016344e-07</v>
+        <v>0.002804218583938296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12_2RCPE</t>
+          <t>13_2RCPE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03228074790983988</v>
+        <v>2.035296299896429e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004522593351688004</v>
+        <v>0.06384742756050546</v>
       </c>
       <c r="D13" t="n">
-        <v>2.059004035381034</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7292260426282426</v>
+        <v>0.04245549001925533</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04607003148646775</v>
+        <v>0.04515390088238572</v>
       </c>
       <c r="G13" t="n">
-        <v>9.516280515065041</v>
+        <v>10.96672644780291</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9220204153801719</v>
+        <v>0.9396006733442703</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005373926276393202</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.536698849536557e-07</v>
+        <v>0.002949713622754585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13_2RCPE</t>
+          <t>14_2RCPE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03230641828395412</v>
+        <v>9.901502644567348e-17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004676727732887787</v>
+        <v>0.06484622664990733</v>
       </c>
       <c r="D14" t="n">
-        <v>1.960558142302788</v>
+        <v>9.999999999999979</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7206621219770806</v>
+        <v>0.04284269560746222</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05075116617738627</v>
+        <v>0.05027594230456858</v>
       </c>
       <c r="G14" t="n">
-        <v>9.684115373488742</v>
+        <v>11.00732508440789</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9131038101108094</v>
+        <v>0.9419738921625711</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005534210010107411</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.56199184569936e-07</v>
+        <v>0.003257298959727193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14_2RCPE</t>
+          <t>15_2RCPE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03260041312866057</v>
+        <v>0.03387185278094306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004732730063289124</v>
+        <v>0.003532445684280602</v>
       </c>
       <c r="D15" t="n">
-        <v>1.933652227750987</v>
+        <v>3.364760578863822</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7281395658141733</v>
+        <v>0.7633426176145656</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05668827706609366</v>
+        <v>0.05902884138511477</v>
       </c>
       <c r="G15" t="n">
-        <v>9.718589176424116</v>
+        <v>10.50864059891802</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9135776157388857</v>
+        <v>0.9203838939777633</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005956148686056566</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.515906033387081e-07</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>15_2RCPE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.03275509135923053</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.004961785961638336</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.011891027017441</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.7155680963367724</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.06207691756112135</v>
-      </c>
-      <c r="G16" t="n">
-        <v>9.807637557427586</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.9138224748089063</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.006277079488450949</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.518388763867449e-07</v>
+        <v>0.003523597691884574</v>
       </c>
     </row>
   </sheetData>
